--- a/biology/Botanique/West_Potomac_Park/West_Potomac_Park.xlsx
+++ b/biology/Botanique/West_Potomac_Park/West_Potomac_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le West Potomac Park est un parc national américain à Washington, D.C., adjacent au National Mall. Il comprend les jardins qui s'étendent au sud de la Lincoln Memorial Reflecting Pool, depuis le Lincoln Memorial jusqu'aux terrains du Washington Monument et les pourtours du Tidal Basin ("bassin de marée"), un bassin artificiel du fleuve Potomac créé au XIXe siècle et qui reliait le fleuve à l'extrémité nord du canal de Washington (aujourd'hui disparu).  
